--- a/biology/Botanique/Ehrharta_stipoides/Ehrharta_stipoides.xlsx
+++ b/biology/Botanique/Ehrharta_stipoides/Ehrharta_stipoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ehrharta stipoides (synonyme Microlaena stipoides) est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae[2], originaire d'Australasie et d'Asie du Sud-Est.
-Cette espèce, relativement proche parente du riz cultivé et des autres céréales domestiquées (blé, maïs), dont les grains relativement riches en protéines (jusqu'à 22 %) ont une taille sensiblement égale à celle des grains de riz, est une candidate potentielle pour l'obtention de céréales vivaces, dans l'optique d'une culture à double fin : plante fourragère et céréale à grains. Des études sont menées à ce sujet en Australie[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ehrharta stipoides (synonyme Microlaena stipoides) est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae, originaire d'Australasie et d'Asie du Sud-Est.
+Cette espèce, relativement proche parente du riz cultivé et des autres céréales domestiquées (blé, maïs), dont les grains relativement riches en protéines (jusqu'à 22 %) ont une taille sensiblement égale à celle des grains de riz, est une candidate potentielle pour l'obtention de céréales vivaces, dans l'optique d'une culture à double fin : plante fourragère et céréale à grains. Des études sont menées à ce sujet en Australie.
 </t>
         </is>
       </c>
@@ -512,17 +524,19 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ehrharta stipoides est une plante herbacée vivace à rhizomes courts, aux tiges (chaumes) géniculées ascendantes ou décombantes, de 30 à 75 cm de long, s'enracinant au niveau des nœuds inférieurs. Elle présente des cataphylles évidents.
-Les feuilles, aux limbes de 2,5 à 25 cm de long sur 1 à 5 mm de large, présentent une ligule ciliolée[2].
+Les feuilles, aux limbes de 2,5 à 25 cm de long sur 1 à 5 mm de large, présentent une ligule ciliolée.
 L'inflorescence est une panicule ouverte, linéaire, de 7 à 17 cm de long, composée de racèmes.
 Les épillets solitaires, comprimés latéralement, de 8 à 14 mm de long, sont pédicellés et comprennent deux fleurons stériles à la base et un fleuron fertile.
 Les glumes sont absentes ou très réduites.
 les épillets se désarticulent à maturité sous chaque fleuron fertile.
 les fleurons comptent 2 lodicules ovales, membraneux et 4 anthères de 3 à 4 mm de long.
-Le fruit est un caryopse linéaire, au péricarpe adhérent[2].
-La plante présente des cléistogènes (fleurons cléistogames, permettant une reproduction par autopollinisation)[2].
+Le fruit est un caryopse linéaire, au péricarpe adhérent.
+La plante présente des cléistogènes (fleurons cléistogames, permettant une reproduction par autopollinisation).
 </t>
         </is>
       </c>
@@ -551,14 +565,16 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition originelle d' Ehrharta stipoides comprend l'Australie, y compris les îles Lord Howe et Norkolk, la Nouvelle-Zélande, y compris les îles Stewart, Chatham et Kermadec, la Papouasie-Nouvelle-Guinée, l'Indonésie et les Philippines.
 L'espèce a été introduite à Hawaï et à l'île de la Réunion, territoire dans lesquels elle est considérée comme envahissante
-Elle est également naturalisée au Chili, en Afrique du Sud et serait présente dans le Royaume-Uni[4].
+Elle est également naturalisée au Chili, en Afrique du Sud et serait présente dans le Royaume-Uni.
 Ehrharta stipoides préfère les sols secs, légers, bien drainés,et tolère des périodes de sécheresse. Elle peut tolérer l'exposition au soleil, mais est plus tolérante à une ombre légère que beaucoup d'autres graminées des pâturages. On la trouve couramment dans des sites très riches en éléments nutritifs, par exemple en lisière des  parcs à moutons, mais à l'inverse, elle a une faible tolérance à la fertilité du sol et exploite les sols perturbés. On peut la trouver jusqu'à des altitudes supérieures à 2000 m.
 La plante reste verte même en période de sécheresse, et est raisonnablement tolérante au gel et à l'ombre.
-C'est une espèce très adaptable à certaines variations de l'habitat, qualité probablement liée à l'existence de variantes génétiques intraspécifiques[4].
+C'est une espèce très adaptable à certaines variations de l'habitat, qualité probablement liée à l'existence de variantes génétiques intraspécifiques.
 </t>
         </is>
       </c>
@@ -587,9 +603,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (17 avril 2017)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (17 avril 2017) :
 sous-espèce Ehrharta stipoides subsp. breviseta (Vickery) L.P.M.Willemse (1982)
 sous-espèce Ehrharta stipoides subsp. stipoides</t>
         </is>
